--- a/results/mp/tinybert/corona/confidence/168/topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,217 +40,214 @@
     <t>name</t>
   </si>
   <si>
-    <t>kills</t>
-  </si>
-  <si>
     <t>killed</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>war</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>shortage</t>
+    <t>stop</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>you</t>
+    <t>!</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>for</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
-    <t>to</t>
+    <t>co</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -608,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
         <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,16 +695,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.88</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.90625</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7142857142857143</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C8">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7058823529411765</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.85</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,49 +1024,49 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L10">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <v>29</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>7</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L10">
-        <v>43</v>
-      </c>
-      <c r="M10">
-        <v>43</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1077,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8214285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1119,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6363636363636364</v>
+        <v>0.2034883720930233</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>411</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.7962962962962963</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,37 +1174,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.175531914893617</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7890625</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4210526315789473</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K14">
         <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1269,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1277,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4074074074074074</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1327,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3928571428571428</v>
+        <v>0.05277777777777778</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1345,219 +1342,123 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>341</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K16">
-        <v>0.7647058823529411</v>
+        <v>0.74375</v>
       </c>
       <c r="L16">
+        <v>119</v>
+      </c>
+      <c r="M16">
+        <v>119</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.7323943661971831</v>
+      </c>
+      <c r="L17">
+        <v>104</v>
+      </c>
+      <c r="M17">
+        <v>104</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>0.6886792452830188</v>
+      </c>
+      <c r="L18">
+        <v>73</v>
+      </c>
+      <c r="M18">
+        <v>73</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="L19">
         <v>13</v>
       </c>
-      <c r="M16">
+      <c r="M19">
         <v>13</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.375</v>
-      </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L20">
         <v>15</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L17">
-        <v>39</v>
-      </c>
-      <c r="M17">
-        <v>39</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>14</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18">
-        <v>0.726027397260274</v>
-      </c>
-      <c r="L18">
-        <v>53</v>
-      </c>
-      <c r="M18">
-        <v>53</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.3175965665236051</v>
-      </c>
-      <c r="C19">
-        <v>74</v>
-      </c>
-      <c r="D19">
-        <v>74</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>159</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L19">
-        <v>21</v>
-      </c>
-      <c r="M19">
-        <v>21</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2758620689655172</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>21</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20">
-        <v>0.72</v>
-      </c>
-      <c r="L20">
-        <v>18</v>
-      </c>
       <c r="M20">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1572,448 +1473,304 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="C21">
-        <v>22</v>
-      </c>
-      <c r="D21">
-        <v>22</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>64</v>
-      </c>
+    <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L21">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>24</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>0.625</v>
+      </c>
+      <c r="L22">
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <v>15</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L23">
+        <v>39</v>
+      </c>
+      <c r="M23">
+        <v>39</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>0.6063829787234043</v>
+      </c>
+      <c r="L24">
+        <v>57</v>
+      </c>
+      <c r="M24">
+        <v>57</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L25">
+        <v>28</v>
+      </c>
+      <c r="M25">
+        <v>28</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="L26">
+        <v>16</v>
+      </c>
+      <c r="M26">
+        <v>16</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L27">
+        <v>28</v>
+      </c>
+      <c r="M27">
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>0.58</v>
+      </c>
+      <c r="L28">
+        <v>29</v>
+      </c>
+      <c r="M28">
+        <v>29</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.5326370757180157</v>
+      </c>
+      <c r="L29">
+        <v>204</v>
+      </c>
+      <c r="M29">
+        <v>204</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L30">
+        <v>18</v>
+      </c>
+      <c r="M30">
+        <v>18</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K21">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L21">
-        <v>9</v>
-      </c>
-      <c r="M21">
-        <v>9</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.25</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>60</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="K31">
+        <v>0.4745762711864407</v>
+      </c>
+      <c r="L31">
+        <v>140</v>
+      </c>
+      <c r="M31">
+        <v>140</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L22">
-        <v>26</v>
-      </c>
-      <c r="M22">
-        <v>26</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.2368421052631579</v>
-      </c>
-      <c r="C23">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>29</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23">
-        <v>0.64</v>
-      </c>
-      <c r="L23">
-        <v>16</v>
-      </c>
-      <c r="M23">
-        <v>16</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.1851851851851852</v>
-      </c>
-      <c r="C24">
-        <v>25</v>
-      </c>
-      <c r="D24">
-        <v>25</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>110</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L24">
-        <v>14</v>
-      </c>
-      <c r="M24">
-        <v>14</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.1181818181818182</v>
-      </c>
-      <c r="C25">
-        <v>13</v>
-      </c>
-      <c r="D25">
-        <v>13</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>97</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L25">
-        <v>7</v>
-      </c>
-      <c r="M25">
-        <v>7</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.03763440860215054</v>
-      </c>
-      <c r="C26">
-        <v>7</v>
-      </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>179</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L26">
-        <v>21</v>
-      </c>
-      <c r="M26">
-        <v>21</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L27">
-        <v>16</v>
-      </c>
-      <c r="M27">
-        <v>16</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L28">
-        <v>7</v>
-      </c>
-      <c r="M28">
-        <v>7</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29">
-        <v>0.5581395348837209</v>
-      </c>
-      <c r="L29">
-        <v>72</v>
-      </c>
-      <c r="M29">
-        <v>72</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="L30">
-        <v>78</v>
-      </c>
-      <c r="M30">
-        <v>78</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L31">
-        <v>15</v>
-      </c>
-      <c r="M31">
-        <v>15</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="K32">
-        <v>0.5294117647058824</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L32">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2025,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.5164319248826291</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L33">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="M33">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2051,21 +1808,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>103</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2077,21 +1834,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.4891304347826087</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L35">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2103,21 +1860,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.45</v>
+        <v>0.3891213389121339</v>
       </c>
       <c r="L36">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2129,21 +1886,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.4324324324324325</v>
+        <v>0.375</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2155,21 +1912,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.4285714285714285</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2181,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.3684210526315789</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2207,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.32</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="L40">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2233,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.3157894736842105</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="L41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2259,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>26</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.05555555555555555</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="L42">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2285,21 +2042,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>187</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.02222222222222222</v>
+        <v>0.02333333333333333</v>
       </c>
       <c r="L43">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2311,21 +2068,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>308</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.02195121951219512</v>
+        <v>0.02237136465324385</v>
       </c>
       <c r="L44">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2337,73 +2094,73 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>401</v>
+        <v>874</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.01973684210526316</v>
+        <v>0.02006172839506173</v>
       </c>
       <c r="L45">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>447</v>
+        <v>635</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.007352941176470588</v>
+        <v>0.01825557809330629</v>
       </c>
       <c r="L46">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N46">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="O46">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>945</v>
+        <v>968</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.004022121669180492</v>
+        <v>0.01664816870144284</v>
       </c>
       <c r="L47">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2415,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>1981</v>
+        <v>886</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0.004009163802978236</v>
+        <v>0.01614763552479815</v>
       </c>
       <c r="L48">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2441,7 +2198,241 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>1739</v>
+        <v>853</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K49">
+        <v>0.01495327102803738</v>
+      </c>
+      <c r="L49">
+        <v>32</v>
+      </c>
+      <c r="M49">
+        <v>35</v>
+      </c>
+      <c r="N49">
+        <v>0.91</v>
+      </c>
+      <c r="O49">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50">
+        <v>0.01385248970423063</v>
+      </c>
+      <c r="L50">
+        <v>37</v>
+      </c>
+      <c r="M50">
+        <v>39</v>
+      </c>
+      <c r="N50">
+        <v>0.95</v>
+      </c>
+      <c r="O50">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51">
+        <v>0.01268412438625205</v>
+      </c>
+      <c r="L51">
+        <v>31</v>
+      </c>
+      <c r="M51">
+        <v>32</v>
+      </c>
+      <c r="N51">
+        <v>0.97</v>
+      </c>
+      <c r="O51">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K52">
+        <v>0.01130653266331658</v>
+      </c>
+      <c r="L52">
+        <v>18</v>
+      </c>
+      <c r="M52">
+        <v>20</v>
+      </c>
+      <c r="N52">
+        <v>0.9</v>
+      </c>
+      <c r="O52">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K53">
+        <v>0.009267059814658803</v>
+      </c>
+      <c r="L53">
+        <v>22</v>
+      </c>
+      <c r="M53">
+        <v>27</v>
+      </c>
+      <c r="N53">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O53">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K54">
+        <v>0.007626531083891842</v>
+      </c>
+      <c r="L54">
+        <v>33</v>
+      </c>
+      <c r="M54">
+        <v>34</v>
+      </c>
+      <c r="N54">
+        <v>0.97</v>
+      </c>
+      <c r="O54">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K55">
+        <v>0.007561070182241178</v>
+      </c>
+      <c r="L55">
+        <v>39</v>
+      </c>
+      <c r="M55">
+        <v>46</v>
+      </c>
+      <c r="N55">
+        <v>0.85</v>
+      </c>
+      <c r="O55">
+        <v>0.15</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K56">
+        <v>0.007407407407407408</v>
+      </c>
+      <c r="L56">
+        <v>23</v>
+      </c>
+      <c r="M56">
+        <v>25</v>
+      </c>
+      <c r="N56">
+        <v>0.92</v>
+      </c>
+      <c r="O56">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K57">
+        <v>0.006207448938726472</v>
+      </c>
+      <c r="L57">
+        <v>31</v>
+      </c>
+      <c r="M57">
+        <v>33</v>
+      </c>
+      <c r="N57">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O57">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>4963</v>
       </c>
     </row>
   </sheetData>
